--- a/Amazon_Project_Assignment/DDT/bhavyasm.xlsx
+++ b/Amazon_Project_Assignment/DDT/bhavyasm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I064880\git\seleniumprograms\Amazon_Project_Assignment\DDT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruty\OneDrive\Desktop\githubforjava\seleniumprograms\Amazon_Project_Assignment\DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A35D6DD4-A5EC-4E9E-856D-3A2931CB3E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF4F35-9DA0-4868-AF1F-681B9474992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register_data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <t>bhavyasmurthy@gmail.com</t>
   </si>
   <si>
-    <t>Hello@123</t>
+    <t>Hello@1234</t>
   </si>
 </sst>
 </file>
@@ -366,13 +366,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.1796875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
     </row>
   </sheetData>
@@ -385,15 +385,15 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="26.33203125" customWidth="1"/>
+    <col min="1" max="2" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
     </row>
   </sheetData>

--- a/Amazon_Project_Assignment/DDT/bhavyasm.xlsx
+++ b/Amazon_Project_Assignment/DDT/bhavyasm.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mruty\OneDrive\Desktop\githubforjava\seleniumprograms\Amazon_Project_Assignment\DDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCF4F35-9DA0-4868-AF1F-681B9474992C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83F0D5E-EF3C-4AA1-9EE4-DDC061544086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,12 +26,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>bhavyasmurthy@gmail.com</t>
   </si>
   <si>
     <t>Hello@1234</t>
+  </si>
+  <si>
+    <t>bsmurthy@gmail.com</t>
+  </si>
+  <si>
+    <t>sjjhsh23js%</t>
   </si>
 </sst>
 </file>
@@ -382,10 +388,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFA8DD4-1C20-4E74-A444-93AEC60B665E}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,12 +408,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>9611700318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{7C6C8887-7C62-47C9-BF2C-E41DCBDC498F}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{A21FA8C4-5E95-489A-93FB-1E2ED9DF2C51}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{3A20F065-58E1-4C48-B214-E011182117A4}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{95534DD4-32CC-4327-BC9F-9AB65E0F4C94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
